--- a/tables/describe_table.xlsx
+++ b/tables/describe_table.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,20 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>current_floor</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>number_of_floors</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>build_year</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ceiling_height</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>longtitude</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>latitude</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>mean_price_sqrm</t>
         </is>
@@ -446,6 +461,15 @@
       <c r="J2" t="n">
         <v>8535</v>
       </c>
+      <c r="K2" t="n">
+        <v>8535</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8535</v>
+      </c>
+      <c r="M2" t="n">
+        <v>8535</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -460,25 +484,34 @@
         <v>2.149150556531927</v>
       </c>
       <c r="D3" t="n">
-        <v>58.22749150556532</v>
+        <v>58.22750322202695</v>
       </c>
       <c r="E3" t="n">
-        <v>35.67127475102519</v>
+        <v>35.67133333333334</v>
       </c>
       <c r="F3" t="n">
-        <v>9.586056707674283</v>
+        <v>9.585939543057997</v>
       </c>
       <c r="G3" t="n">
+        <v>5.200937316930287</v>
+      </c>
+      <c r="H3" t="n">
         <v>9.404920913884007</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
+        <v>1984.90661980082</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.649670767428236</v>
+      </c>
+      <c r="K3" t="n">
         <v>43.94379761769186</v>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>56.29753128927944</v>
       </c>
-      <c r="J3" t="n">
-        <v>68849.82912054229</v>
+      <c r="M3" t="n">
+        <v>68849.82226455038</v>
       </c>
     </row>
     <row r="4">
@@ -494,25 +527,34 @@
         <v>0.9438868315520995</v>
       </c>
       <c r="D4" t="n">
-        <v>29.77358252867211</v>
+        <v>29.77358871649534</v>
       </c>
       <c r="E4" t="n">
-        <v>19.74109145444679</v>
+        <v>19.741130270397</v>
       </c>
       <c r="F4" t="n">
-        <v>5.584856462241263</v>
+        <v>5.584900229319754</v>
       </c>
       <c r="G4" t="n">
+        <v>4.173869303918115</v>
+      </c>
+      <c r="H4" t="n">
         <v>5.874942652853428</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>23.65017926232395</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.1917416673176691</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.085382250650932</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>0.03850899319697753</v>
       </c>
-      <c r="J4" t="n">
-        <v>20176.58986875354</v>
+      <c r="M4" t="n">
+        <v>20176.59856092803</v>
       </c>
     </row>
     <row r="5">
@@ -537,15 +579,24 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
+        <v>1846</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
         <v>43.617142</v>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>56.159639</v>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
         <v>14880.95238095238</v>
       </c>
     </row>
@@ -571,15 +622,24 @@
         <v>6</v>
       </c>
       <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>1967</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K6" t="n">
         <v>43.8661505</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>56.272765</v>
       </c>
-      <c r="J6" t="n">
+      <c r="M6" t="n">
         <v>55555.55555555555</v>
       </c>
     </row>
@@ -605,15 +665,24 @@
         <v>8.1</v>
       </c>
       <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
+        <v>1982</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K7" t="n">
         <v>43.940329</v>
       </c>
-      <c r="I7" t="n">
+      <c r="L7" t="n">
         <v>56.29976600000001</v>
       </c>
-      <c r="J7" t="n">
+      <c r="M7" t="n">
         <v>65625</v>
       </c>
     </row>
@@ -639,15 +708,24 @@
         <v>11</v>
       </c>
       <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
+        <v>2008</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="K8" t="n">
         <v>44.0167345</v>
       </c>
-      <c r="I8" t="n">
+      <c r="L8" t="n">
         <v>56.32340300000001</v>
       </c>
-      <c r="J8" t="n">
+      <c r="M8" t="n">
         <v>78000</v>
       </c>
     </row>
@@ -673,15 +751,24 @@
         <v>101.57</v>
       </c>
       <c r="G9" t="n">
+        <v>25</v>
+      </c>
+      <c r="H9" t="n">
         <v>27</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
         <v>44.114808</v>
       </c>
-      <c r="I9" t="n">
+      <c r="L9" t="n">
         <v>56.392732</v>
       </c>
-      <c r="J9" t="n">
+      <c r="M9" t="n">
         <v>250965.250965251</v>
       </c>
     </row>
